--- a/backend/public/files/ExportedData.xlsx
+++ b/backend/public/files/ExportedData.xlsx
@@ -854,16 +854,16 @@
         <v>2019</v>
       </c>
       <c r="B2" t="n">
-        <v>54857.22</v>
+        <v>17097.54</v>
       </c>
       <c r="D2" t="n">
-        <v>50053.33</v>
+        <v>17473.31</v>
       </c>
       <c r="E2" t="n">
-        <v>59797.37</v>
+        <v>21608.76</v>
       </c>
       <c r="F2" t="n">
-        <v>40309.28</v>
+        <v>13337.85</v>
       </c>
     </row>
     <row r="3">
@@ -871,16 +871,16 @@
         <v>2020</v>
       </c>
       <c r="B3" t="n">
-        <v>26986.86</v>
+        <v>32076.97</v>
       </c>
       <c r="D3" t="n">
-        <v>39443.03</v>
+        <v>29797.91</v>
       </c>
       <c r="E3" t="n">
-        <v>49187.08</v>
+        <v>33933.37</v>
       </c>
       <c r="F3" t="n">
-        <v>29698.99</v>
+        <v>25662.46</v>
       </c>
     </row>
     <row r="4">
@@ -888,16 +888,16 @@
         <v>2021</v>
       </c>
       <c r="B4" t="n">
-        <v>41595.81999999999</v>
+        <v>30419.36</v>
       </c>
       <c r="D4" t="n">
-        <v>33050.66</v>
+        <v>35001.94</v>
       </c>
       <c r="E4" t="n">
-        <v>42794.71</v>
+        <v>39137.4</v>
       </c>
       <c r="F4" t="n">
-        <v>23306.62</v>
+        <v>30866.49</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>2022</v>
       </c>
       <c r="B5" t="n">
-        <v>32731.60999999999</v>
+        <v>37383.37</v>
       </c>
       <c r="D5" t="n">
-        <v>30876.21</v>
+        <v>33085.39</v>
       </c>
       <c r="E5" t="n">
-        <v>40620.25</v>
+        <v>37220.84</v>
       </c>
       <c r="F5" t="n">
-        <v>21132.16</v>
+        <v>28949.93</v>
       </c>
     </row>
     <row r="6">
@@ -922,16 +922,16 @@
         <v>2023</v>
       </c>
       <c r="B6" t="n">
-        <v>31175.57</v>
+        <v>23021.01000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>32919.67</v>
+        <v>24048.26</v>
       </c>
       <c r="E6" t="n">
-        <v>42663.72</v>
+        <v>28183.71</v>
       </c>
       <c r="F6" t="n">
-        <v>23175.63</v>
+        <v>19912.8</v>
       </c>
     </row>
     <row r="7">
@@ -939,16 +939,16 @@
         <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>31175.57</v>
+        <v>23021.01000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>32919.67</v>
+        <v>24048.26</v>
       </c>
       <c r="E7" t="n">
-        <v>42663.72</v>
+        <v>28183.71</v>
       </c>
       <c r="F7" t="n">
-        <v>23175.63</v>
+        <v>19912.8</v>
       </c>
     </row>
     <row r="8">
@@ -956,16 +956,16 @@
         <v>2024</v>
       </c>
       <c r="C8" t="n">
-        <v>39561.59</v>
+        <v>8114.67</v>
       </c>
       <c r="D8" t="n">
-        <v>39181.06</v>
+        <v>7890.55</v>
       </c>
       <c r="E8" t="n">
-        <v>48925.1</v>
+        <v>12026</v>
       </c>
       <c r="F8" t="n">
-        <v>29437.01</v>
+        <v>3755.09</v>
       </c>
     </row>
     <row r="9">
@@ -973,16 +973,16 @@
         <v>2025</v>
       </c>
       <c r="C9" t="n">
-        <v>49977.47</v>
+        <v>-15200.97</v>
       </c>
       <c r="D9" t="n">
-        <v>49660.36</v>
+        <v>-15387.75</v>
       </c>
       <c r="E9" t="n">
-        <v>59404.4</v>
+        <v>-11252.29</v>
       </c>
       <c r="F9" t="n">
-        <v>39916.31</v>
+        <v>-19523.2</v>
       </c>
     </row>
     <row r="10">
@@ -990,16 +990,16 @@
         <v>2026</v>
       </c>
       <c r="C10" t="n">
-        <v>64558.41</v>
+        <v>-45668.33</v>
       </c>
       <c r="D10" t="n">
-        <v>64357.58</v>
+        <v>-45786.62</v>
       </c>
       <c r="E10" t="n">
-        <v>74101.62</v>
+        <v>-41651.16</v>
       </c>
       <c r="F10" t="n">
-        <v>54613.53</v>
+        <v>-49922.07</v>
       </c>
     </row>
     <row r="11">
@@ -1007,16 +1007,16 @@
         <v>2027</v>
       </c>
       <c r="C11" t="n">
-        <v>83304.42999999999</v>
+        <v>-83287.39</v>
       </c>
       <c r="D11" t="n">
-        <v>83272.72</v>
+        <v>-83306.07000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>93016.75999999999</v>
+        <v>-79170.61</v>
       </c>
       <c r="F11" t="n">
-        <v>73528.67</v>
+        <v>-87441.52</v>
       </c>
     </row>
     <row r="12">
@@ -1024,16 +1024,16 @@
         <v>2028</v>
       </c>
       <c r="C12" t="n">
-        <v>106215.51</v>
+        <v>-128058.16</v>
       </c>
       <c r="D12" t="n">
-        <v>106405.78</v>
+        <v>-127946.1</v>
       </c>
       <c r="E12" t="n">
-        <v>116149.82</v>
+        <v>-123810.64</v>
       </c>
       <c r="F12" t="n">
-        <v>96661.73</v>
+        <v>-132081.55</v>
       </c>
     </row>
     <row r="16">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>y = 2108.9593x² + -8528696.9788x + 8622609736.8696</t>
+          <t>y = -3560.2899x² + 14392335.3431x + -14545080859.4337</t>
         </is>
       </c>
     </row>

--- a/backend/public/files/ExportedData.xlsx
+++ b/backend/public/files/ExportedData.xlsx
@@ -854,16 +854,16 @@
         <v>2019</v>
       </c>
       <c r="B2" t="n">
-        <v>17097.54</v>
+        <v>33938.07</v>
       </c>
       <c r="D2" t="n">
-        <v>17473.31</v>
+        <v>33289.8</v>
       </c>
       <c r="E2" t="n">
-        <v>21608.76</v>
+        <v>47203.81</v>
       </c>
       <c r="F2" t="n">
-        <v>13337.85</v>
+        <v>19375.79</v>
       </c>
     </row>
     <row r="3">
@@ -871,16 +871,16 @@
         <v>2020</v>
       </c>
       <c r="B3" t="n">
-        <v>32076.97</v>
+        <v>18421.32</v>
       </c>
       <c r="D3" t="n">
-        <v>29797.91</v>
+        <v>24701.45</v>
       </c>
       <c r="E3" t="n">
-        <v>33933.37</v>
+        <v>38615.46</v>
       </c>
       <c r="F3" t="n">
-        <v>25662.46</v>
+        <v>10787.44</v>
       </c>
     </row>
     <row r="4">
@@ -888,16 +888,16 @@
         <v>2021</v>
       </c>
       <c r="B4" t="n">
-        <v>30419.36</v>
+        <v>37302.54</v>
       </c>
       <c r="D4" t="n">
-        <v>35001.94</v>
+        <v>22351.76</v>
       </c>
       <c r="E4" t="n">
-        <v>39137.4</v>
+        <v>36265.77</v>
       </c>
       <c r="F4" t="n">
-        <v>30866.49</v>
+        <v>8437.75</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>2022</v>
       </c>
       <c r="B5" t="n">
-        <v>37383.37</v>
+        <v>10828.92</v>
       </c>
       <c r="D5" t="n">
-        <v>33085.39</v>
+        <v>26240.73</v>
       </c>
       <c r="E5" t="n">
-        <v>37220.84</v>
+        <v>40154.74</v>
       </c>
       <c r="F5" t="n">
-        <v>28949.93</v>
+        <v>12326.72</v>
       </c>
     </row>
     <row r="6">
@@ -922,16 +922,16 @@
         <v>2023</v>
       </c>
       <c r="B6" t="n">
-        <v>23021.01000000001</v>
+        <v>40235.00999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>24048.26</v>
+        <v>36368.37</v>
       </c>
       <c r="E6" t="n">
-        <v>28183.71</v>
+        <v>50282.38</v>
       </c>
       <c r="F6" t="n">
-        <v>19912.8</v>
+        <v>22454.36</v>
       </c>
     </row>
     <row r="7">
@@ -939,16 +939,16 @@
         <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>23021.01000000001</v>
+        <v>40235.00999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>24048.26</v>
+        <v>36368.37</v>
       </c>
       <c r="E7" t="n">
-        <v>28183.71</v>
+        <v>50282.38</v>
       </c>
       <c r="F7" t="n">
-        <v>19912.8</v>
+        <v>22454.36</v>
       </c>
     </row>
     <row r="8">
@@ -956,16 +956,16 @@
         <v>2024</v>
       </c>
       <c r="C8" t="n">
-        <v>8114.67</v>
+        <v>51891.04</v>
       </c>
       <c r="D8" t="n">
-        <v>7890.55</v>
+        <v>52734.67</v>
       </c>
       <c r="E8" t="n">
-        <v>12026</v>
+        <v>66648.67999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>3755.09</v>
+        <v>38820.66</v>
       </c>
     </row>
     <row r="9">
@@ -973,16 +973,16 @@
         <v>2025</v>
       </c>
       <c r="C9" t="n">
-        <v>-15200.97</v>
+        <v>74636.60000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>-15387.75</v>
+        <v>75339.63</v>
       </c>
       <c r="E9" t="n">
-        <v>-11252.29</v>
+        <v>89253.64</v>
       </c>
       <c r="F9" t="n">
-        <v>-19523.2</v>
+        <v>61425.62</v>
       </c>
     </row>
     <row r="10">
@@ -990,16 +990,16 @@
         <v>2026</v>
       </c>
       <c r="C10" t="n">
-        <v>-45668.33</v>
+        <v>103738.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-45786.62</v>
+        <v>104183.26</v>
       </c>
       <c r="E10" t="n">
-        <v>-41651.16</v>
+        <v>118097.26</v>
       </c>
       <c r="F10" t="n">
-        <v>-49922.07</v>
+        <v>90269.25</v>
       </c>
     </row>
     <row r="11">
@@ -1007,16 +1007,16 @@
         <v>2027</v>
       </c>
       <c r="C11" t="n">
-        <v>-83287.39</v>
+        <v>139195.24</v>
       </c>
       <c r="D11" t="n">
-        <v>-83306.07000000001</v>
+        <v>139265.54</v>
       </c>
       <c r="E11" t="n">
-        <v>-79170.61</v>
+        <v>153179.55</v>
       </c>
       <c r="F11" t="n">
-        <v>-87441.52</v>
+        <v>125351.54</v>
       </c>
     </row>
     <row r="12">
@@ -1024,16 +1024,16 @@
         <v>2028</v>
       </c>
       <c r="C12" t="n">
-        <v>-128058.16</v>
+        <v>181008.31</v>
       </c>
       <c r="D12" t="n">
-        <v>-127946.1</v>
+        <v>180586.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-123810.64</v>
+        <v>194500.5</v>
       </c>
       <c r="F12" t="n">
-        <v>-132081.55</v>
+        <v>166672.49</v>
       </c>
     </row>
     <row r="16">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>y = -3560.2899x² + 14392335.3431x + -14545080859.4337</t>
+          <t>y = 3119.3315x² + -12607568.3925x + 12739192489.5563</t>
         </is>
       </c>
     </row>

--- a/backend/public/files/ExportedData.xlsx
+++ b/backend/public/files/ExportedData.xlsx
@@ -854,16 +854,16 @@
         <v>2019</v>
       </c>
       <c r="B2" t="n">
-        <v>33938.07</v>
+        <v>40975.66</v>
       </c>
       <c r="D2" t="n">
-        <v>33289.8</v>
+        <v>40493.42</v>
       </c>
       <c r="E2" t="n">
-        <v>47203.81</v>
+        <v>43881.26</v>
       </c>
       <c r="F2" t="n">
-        <v>19375.79</v>
+        <v>37105.58</v>
       </c>
     </row>
     <row r="3">
@@ -871,16 +871,16 @@
         <v>2020</v>
       </c>
       <c r="B3" t="n">
-        <v>18421.32</v>
+        <v>40945.81</v>
       </c>
       <c r="D3" t="n">
-        <v>24701.45</v>
+        <v>40951.56</v>
       </c>
       <c r="E3" t="n">
-        <v>38615.46</v>
+        <v>44339.4</v>
       </c>
       <c r="F3" t="n">
-        <v>10787.44</v>
+        <v>37563.72</v>
       </c>
     </row>
     <row r="4">
@@ -888,16 +888,16 @@
         <v>2021</v>
       </c>
       <c r="B4" t="n">
-        <v>37302.54</v>
+        <v>37701.31000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>22351.76</v>
+        <v>40577.5</v>
       </c>
       <c r="E4" t="n">
-        <v>36265.77</v>
+        <v>43965.34</v>
       </c>
       <c r="F4" t="n">
-        <v>8437.75</v>
+        <v>37189.66</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>2022</v>
       </c>
       <c r="B5" t="n">
-        <v>10828.92</v>
+        <v>43796.08</v>
       </c>
       <c r="D5" t="n">
-        <v>26240.73</v>
+        <v>39371.23</v>
       </c>
       <c r="E5" t="n">
-        <v>40154.74</v>
+        <v>42759.08</v>
       </c>
       <c r="F5" t="n">
-        <v>12326.72</v>
+        <v>35983.39</v>
       </c>
     </row>
     <row r="6">
@@ -922,16 +922,16 @@
         <v>2023</v>
       </c>
       <c r="B6" t="n">
-        <v>40235.00999999999</v>
+        <v>36047.58</v>
       </c>
       <c r="D6" t="n">
-        <v>36368.37</v>
+        <v>37332.77</v>
       </c>
       <c r="E6" t="n">
-        <v>50282.38</v>
+        <v>40720.61</v>
       </c>
       <c r="F6" t="n">
-        <v>22454.36</v>
+        <v>33944.93</v>
       </c>
     </row>
     <row r="7">
@@ -939,16 +939,16 @@
         <v>2023</v>
       </c>
       <c r="C7" t="n">
-        <v>40235.00999999999</v>
+        <v>36047.58</v>
       </c>
       <c r="D7" t="n">
-        <v>36368.37</v>
+        <v>37332.77</v>
       </c>
       <c r="E7" t="n">
-        <v>50282.38</v>
+        <v>40720.61</v>
       </c>
       <c r="F7" t="n">
-        <v>22454.36</v>
+        <v>33944.93</v>
       </c>
     </row>
     <row r="8">
@@ -956,16 +956,16 @@
         <v>2024</v>
       </c>
       <c r="C8" t="n">
-        <v>51891.04</v>
+        <v>34742.51</v>
       </c>
       <c r="D8" t="n">
-        <v>52734.67</v>
+        <v>34462.1</v>
       </c>
       <c r="E8" t="n">
-        <v>66648.67999999999</v>
+        <v>37849.94</v>
       </c>
       <c r="F8" t="n">
-        <v>38820.66</v>
+        <v>31074.26</v>
       </c>
     </row>
     <row r="9">
@@ -973,16 +973,16 @@
         <v>2025</v>
       </c>
       <c r="C9" t="n">
-        <v>74636.60000000001</v>
+        <v>30992.9</v>
       </c>
       <c r="D9" t="n">
-        <v>75339.63</v>
+        <v>30759.23</v>
       </c>
       <c r="E9" t="n">
-        <v>89253.64</v>
+        <v>34147.07</v>
       </c>
       <c r="F9" t="n">
-        <v>61425.62</v>
+        <v>27371.39</v>
       </c>
     </row>
     <row r="10">
@@ -990,16 +990,16 @@
         <v>2026</v>
       </c>
       <c r="C10" t="n">
-        <v>103738.01</v>
+        <v>26372.15</v>
       </c>
       <c r="D10" t="n">
-        <v>104183.26</v>
+        <v>26224.16</v>
       </c>
       <c r="E10" t="n">
-        <v>118097.26</v>
+        <v>29612</v>
       </c>
       <c r="F10" t="n">
-        <v>90269.25</v>
+        <v>22836.32</v>
       </c>
     </row>
     <row r="11">
@@ -1007,16 +1007,16 @@
         <v>2027</v>
       </c>
       <c r="C11" t="n">
-        <v>139195.24</v>
+        <v>20880.25</v>
       </c>
       <c r="D11" t="n">
-        <v>139265.54</v>
+        <v>20856.89</v>
       </c>
       <c r="E11" t="n">
-        <v>153179.55</v>
+        <v>24244.73</v>
       </c>
       <c r="F11" t="n">
-        <v>125351.54</v>
+        <v>17469.04</v>
       </c>
     </row>
     <row r="12">
@@ -1024,16 +1024,16 @@
         <v>2028</v>
       </c>
       <c r="C12" t="n">
-        <v>181008.31</v>
+        <v>14517.21</v>
       </c>
       <c r="D12" t="n">
-        <v>180586.5</v>
+        <v>14657.41</v>
       </c>
       <c r="E12" t="n">
-        <v>194500.5</v>
+        <v>18045.25</v>
       </c>
       <c r="F12" t="n">
-        <v>166672.49</v>
+        <v>11269.57</v>
       </c>
     </row>
     <row r="16">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>y = 3119.3315x² + -12607568.3925x + 12739192489.5563</t>
+          <t>y = -416.1010x² + 1681090.0786x + -1697902487.3418</t>
         </is>
       </c>
     </row>
